--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shafeeks\Desktop\Temp\PickME\food_type_prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8F7F58-97E1-46E6-86D0-21D001CA3B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8FB69E-AFE7-4220-9DD3-07FBE9CFFF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,13 +162,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,7 +453,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,13 +482,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -521,12 +521,16 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="7">
+        <v>0.87549999999999994</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.78269999999999995</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
